--- a/quizzes/ls06_boxplots/ls06_boxplots_theory_quiz/quiz.xlsx
+++ b/quizzes/ls06_boxplots/ls06_boxplots_theory_quiz/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\data_on_display_staging\quizzes\ls06_boxplots\ls06_boxplots_theory_quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF2399-8FF4-4C34-BEDD-62FAEBB5D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42D7988-04E6-4C07-90AE-6A097DF17A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,8 +91,7 @@
     <t>Hint</t>
   </si>
   <si>
-    <t>&lt;p&gt;This quiz tests your understanding of [lesson 6]._x000D_
-Good luck!&lt;/p&gt;&lt;p&gt;Quiz Contributors: &lt;a href="https://thegraphcourses.org/members/joy/" target="_blank"&gt;Joy Vaz&lt;/a&gt;, &lt;a href="https://thegraphcourses.org/members/kendavidn/" target="_blank"&gt;Kene David Nwosu&lt;/a&gt;&lt;/p&gt;</t>
+    <t>&lt;p&gt;This quiz tests your understanding of [lesson 6]. Good luck!&lt;/p&gt;&lt;p&gt;Quiz Contributors: &lt;a href="https://thegraphcourses.org/members/joy/" target="_blank"&gt;Joy Vaz&lt;/a&gt;, &lt;a href="https://thegraphcourses.org/members/kendavidn/" target="_blank"&gt;Kene David Nwosu&lt;/a&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>#q---geom-function</t>
@@ -126,8 +125,7 @@
   <si>
     <t>&lt;div id="correct-message" class="section level2"&gt;_x000D_
 &lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
-&lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;code&gt;geom_boxplot()&lt;/code&gt; is used to create boxplots in {ggplot2}&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;p&gt;Exactly! &lt;code&gt;geom_boxplot()&lt;/code&gt; is used to create boxplots in {ggplot2}&lt;/p&gt;_x000D_&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div id="incorrect-message" class="section level2"&gt;_x000D_
@@ -138,7 +136,7 @@
     <t>#q---distribution-tf</t>
   </si>
   <si>
-    <t>&lt;p&gt;boxplots are used to display distributions of a continuous variable, split by values of second discrete/categorical variable.&lt;/p&gt;</t>
+    <t>&lt;p&gt;Boxplots are used to display distributions of a continuous variable, split by values of second discrete/categorical variable.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;div id="a-1" class="section level2"&gt;_x000D_
@@ -187,8 +185,8 @@
   <si>
     <t>&lt;div id="incorrect-message-2" class="section level2"&gt;_x000D_
 &lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;Check again!&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;p&gt;Check again!_x000D_
+&lt;img src="../../../lessons/images/plot_types_table_cropped.jpg" width="766"&gt;&lt;/p&gt;_x000D_&lt;/div&gt;</t>
   </si>
   <si>
     <t>#q---continuous-tf</t>
@@ -285,14 +283,12 @@
     <t>&lt;div id="correct-message-5" class="section level2"&gt;_x000D_
 &lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
 &lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;You can use the &lt;code&gt;color&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the color of the box and whiskers._x000D_
-This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;p&gt;You can use the &lt;code&gt;color&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the color of the box and whiskers. This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div id="incorrect-message-5" class="section level2"&gt;_x000D_
 &lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;You can use the &lt;code&gt;color&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the color of the box and whiskers._x000D_
-This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;p&gt;You can use the &lt;code&gt;color&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the color of the box and whiskers. This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
   </si>
   <si>
     <t>#q---fill-usage</t>
@@ -324,17 +320,15 @@
     <t>&lt;div id="correct-message-6" class="section level2"&gt;_x000D_
 &lt;h2&gt;Correct message&lt;/h2&gt;_x000D_
 &lt;p&gt;Correct!&lt;/p&gt;_x000D_
-&lt;p&gt;You can use the &lt;code&gt;fill&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the interior color of the box and whiskers._x000D_
-This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+&lt;p&gt;You can use the &lt;code&gt;fill&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the interior color of the box and whiskers. This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
   </si>
   <si>
     <t>&lt;div id="incorrect-message-6" class="section level2"&gt;_x000D_
 &lt;h2&gt;Incorrect message&lt;/h2&gt;_x000D_
-&lt;p&gt;You can use the &lt;code&gt;fill&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the interior color of the box and whiskers._x000D_
-This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Multiple-choice quiz | Boxplots (test)</t>
+&lt;p&gt;You can use the &lt;code&gt;fill&lt;/code&gt; argument in &lt;code&gt;geom_boxplot()&lt;/code&gt; to adjust the interior color of the box and whiskers. This is a fixed aesthetic that will set the color to a constant value.&lt;/p&gt;_x000D_&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Multiple-choice quiz | Boxplots (test3)</t>
   </si>
 </sst>
 </file>
